--- a/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 49,68</t>
+          <t>24,49; 49,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 42,3</t>
+          <t>16,07; 42,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 13,2</t>
+          <t>-10,63; 12,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 45,03</t>
+          <t>19,57; 44,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 47,4</t>
+          <t>24,27; 47,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 16,76</t>
+          <t>-1,56; 16,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,38; 43,52</t>
+          <t>25,96; 43,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,08; 41,84</t>
+          <t>22,97; 41,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 11,96</t>
+          <t>-2,27; 12,33</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>112,15; 545,01</t>
+          <t>117,31; 577,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,3; 433,33</t>
+          <t>73,67; 501,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 134,92</t>
+          <t>-55,84; 135,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>98,99; 448,46</t>
+          <t>93,94; 482,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>113,26; 492,74</t>
+          <t>118,04; 473,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 177,67</t>
+          <t>-8,64; 179,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>126,08; 380,59</t>
+          <t>130,2; 374,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>122,38; 363,22</t>
+          <t>123,15; 384,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 109,01</t>
+          <t>-12,86; 106,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,29; 35,18</t>
+          <t>22,9; 34,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 32,36</t>
+          <t>19,77; 32,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,75</t>
+          <t>-3,43; 9,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,69; 34,54</t>
+          <t>22,74; 34,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,66; 25,81</t>
+          <t>13,83; 26,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 3,95</t>
+          <t>-8,25; 3,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,82; 33,2</t>
+          <t>24,3; 33,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 27,39</t>
+          <t>18,18; 27,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,77</t>
+          <t>-4,2; 4,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,77; 172,72</t>
+          <t>85,6; 171,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,55; 156,18</t>
+          <t>74,6; 157,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 41,54</t>
+          <t>-13,02; 44,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,09; 139,05</t>
+          <t>71,42; 142,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,56; 103,15</t>
+          <t>43,9; 106,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 14,73</t>
+          <t>-26,43; 13,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,32; 138,76</t>
+          <t>84,92; 137,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,16; 113,91</t>
+          <t>64,46; 114,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 20,35</t>
+          <t>-14,74; 18,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,58; 36,94</t>
+          <t>27,59; 36,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 25,68</t>
+          <t>16,36; 25,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 9,17</t>
+          <t>-0,48; 9,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,29; 35,34</t>
+          <t>26,14; 35,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,65; 28,45</t>
+          <t>19,09; 28,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 12,68</t>
+          <t>4,52; 13,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,01; 34,8</t>
+          <t>27,41; 34,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,1; 25,86</t>
+          <t>19,11; 25,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,88</t>
+          <t>3,61; 9,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>110,45; 183,21</t>
+          <t>111,52; 182,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>64,57; 124,86</t>
+          <t>65,16; 130,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 44,5</t>
+          <t>-2,5; 45,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,84; 149,97</t>
+          <t>92,43; 150,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,88; 121,35</t>
+          <t>67,89; 120,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,0; 52,74</t>
+          <t>16,24; 56,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>107,61; 152,95</t>
+          <t>104,21; 151,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,51; 114,25</t>
+          <t>73,5; 114,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,34; 43,5</t>
+          <t>14,05; 43,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,16; 39,48</t>
+          <t>28,53; 40,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 18,4</t>
+          <t>7,15; 18,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,16</t>
+          <t>-3,49; 7,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,5; 37,61</t>
+          <t>27,27; 37,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,22; 20,99</t>
+          <t>9,98; 21,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 37,93</t>
+          <t>-3,34; 38,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,34; 36,9</t>
+          <t>29,19; 36,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,16</t>
+          <t>10,6; 18,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 27,49</t>
+          <t>-1,01; 25,77</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>115,9; 212,43</t>
+          <t>119,03; 221,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,41; 99,61</t>
+          <t>31,93; 100,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 37,55</t>
+          <t>-14,67; 38,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>97,79; 163,43</t>
+          <t>95,1; 167,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,55; 91,09</t>
+          <t>35,07; 92,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 166,2</t>
+          <t>-13,08; 153,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>114,71; 172,96</t>
+          <t>114,38; 171,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,76; 83,0</t>
+          <t>41,79; 86,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 122,51</t>
+          <t>-3,95; 123,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,15; 28,59</t>
+          <t>18,99; 28,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,04; 23,83</t>
+          <t>13,88; 23,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 3,97</t>
+          <t>-4,78; 4,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,48; 25,54</t>
+          <t>16,35; 25,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,69; 24,65</t>
+          <t>15,25; 24,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,54</t>
+          <t>-6,5; 1,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,03; 25,48</t>
+          <t>19,06; 25,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,44; 23,22</t>
+          <t>16,33; 22,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,5</t>
+          <t>-4,88; 1,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>80,21; 151,04</t>
+          <t>79,92; 149,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>60,98; 126,72</t>
+          <t>58,36; 124,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 20,52</t>
+          <t>-20,53; 21,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>54,08; 101,45</t>
+          <t>54,09; 99,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>53,8; 98,43</t>
+          <t>51,75; 98,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 6,19</t>
+          <t>-21,69; 7,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>72,22; 110,35</t>
+          <t>71,21; 109,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>62,16; 100,2</t>
+          <t>61,87; 99,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 6,49</t>
+          <t>-18,72; 6,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,6</t>
+          <t>27,36; 32,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,44</t>
+          <t>17,25; 22,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,58</t>
+          <t>-0,48; 4,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,42</t>
+          <t>25,24; 30,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,1</t>
+          <t>18,24; 23,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,21</t>
+          <t>0,5; 13,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,5</t>
+          <t>27,01; 30,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,98</t>
+          <t>18,51; 22,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,57</t>
+          <t>1,11; 8,92</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>117,32; 159,14</t>
+          <t>117,1; 158,35</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>73,49; 108,72</t>
+          <t>74,32; 109,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 21,77</t>
+          <t>-2,08; 22,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>93,74; 123,11</t>
+          <t>91,73; 121,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>66,44; 92,38</t>
+          <t>66,17; 93,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,5; 52,44</t>
+          <t>1,83; 53,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>107,28; 131,06</t>
+          <t>108,18; 132,61</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>73,18; 94,43</t>
+          <t>74,11; 94,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>3,88; 38,18</t>
+          <t>4,4; 37,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 49,88</t>
+          <t>24,24; 48,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 42,7</t>
+          <t>15,51; 41,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 12,03</t>
+          <t>-11,52; 11,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,57; 44,93</t>
+          <t>20,42; 46,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,27; 47,52</t>
+          <t>22,25; 46,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 16,59</t>
+          <t>-1,56; 16,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,96; 43,56</t>
+          <t>25,66; 43,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,97; 41,71</t>
+          <t>23,55; 41,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 12,33</t>
+          <t>-2,09; 11,95</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>117,31; 577,48</t>
+          <t>105,26; 533,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,67; 501,99</t>
+          <t>74,84; 476,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 135,6</t>
+          <t>-58,64; 130,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,94; 482,04</t>
+          <t>87,83; 446,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>118,04; 473,2</t>
+          <t>109,67; 466,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 179,07</t>
+          <t>-10,02; 178,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>130,2; 374,32</t>
+          <t>127,12; 387,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>123,15; 384,72</t>
+          <t>120,44; 369,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 106,89</t>
+          <t>-12,3; 104,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,9; 34,97</t>
+          <t>23,24; 35,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,77; 32,53</t>
+          <t>19,47; 31,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 9,23</t>
+          <t>-3,68; 8,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,74; 34,71</t>
+          <t>22,76; 34,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 26,81</t>
+          <t>14,2; 26,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 3,48</t>
+          <t>-7,66; 3,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,3; 33,38</t>
+          <t>24,53; 33,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,18; 27,58</t>
+          <t>18,42; 27,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,36</t>
+          <t>-3,87; 4,5</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,6; 171,53</t>
+          <t>87,1; 178,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,6; 157,88</t>
+          <t>72,42; 158,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 44,28</t>
+          <t>-14,25; 43,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,42; 142,27</t>
+          <t>72,3; 138,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,9; 106,72</t>
+          <t>44,73; 105,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 13,8</t>
+          <t>-25,3; 14,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,92; 137,95</t>
+          <t>87,66; 140,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,46; 114,68</t>
+          <t>65,82; 113,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 18,35</t>
+          <t>-13,77; 18,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,59; 36,79</t>
+          <t>27,96; 37,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 25,94</t>
+          <t>15,92; 25,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 9,57</t>
+          <t>-0,47; 9,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,14; 35,14</t>
+          <t>26,28; 35,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,09; 28,11</t>
+          <t>18,98; 28,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 13,05</t>
+          <t>4,21; 12,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,41; 34,32</t>
+          <t>27,9; 34,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,11; 25,86</t>
+          <t>19,17; 25,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,91</t>
+          <t>3,86; 10,16</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>111,52; 182,88</t>
+          <t>110,38; 180,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>65,16; 130,03</t>
+          <t>63,53; 125,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 45,15</t>
+          <t>-2,05; 43,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,43; 150,78</t>
+          <t>93,27; 155,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,89; 120,47</t>
+          <t>68,1; 122,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,24; 56,59</t>
+          <t>14,98; 56,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>104,21; 151,83</t>
+          <t>105,63; 153,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,5; 114,31</t>
+          <t>74,63; 115,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 43,85</t>
+          <t>14,76; 44,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,53; 40,01</t>
+          <t>27,84; 39,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 18,05</t>
+          <t>7,8; 19,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 7,25</t>
+          <t>-3,95; 7,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,27; 37,74</t>
+          <t>27,27; 37,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,98; 21,18</t>
+          <t>9,67; 20,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 38,11</t>
+          <t>-3,14; 37,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,19; 36,99</t>
+          <t>29,29; 37,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,6; 18,64</t>
+          <t>10,49; 18,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 25,77</t>
+          <t>-1,22; 25,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>119,03; 221,77</t>
+          <t>115,27; 221,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,93; 100,71</t>
+          <t>30,38; 104,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 38,62</t>
+          <t>-16,88; 40,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>95,1; 167,85</t>
+          <t>95,01; 165,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,07; 92,31</t>
+          <t>34,19; 90,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 153,27</t>
+          <t>-12,05; 146,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>114,38; 171,49</t>
+          <t>114,73; 174,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,79; 86,47</t>
+          <t>41,26; 84,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 123,12</t>
+          <t>-4,98; 113,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,99; 28,31</t>
+          <t>18,88; 28,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,88; 23,41</t>
+          <t>13,62; 23,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 4,0</t>
+          <t>-4,65; 4,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,35; 25,38</t>
+          <t>16,09; 25,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,25; 24,7</t>
+          <t>15,61; 24,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 1,77</t>
+          <t>-6,61; 1,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,06; 25,35</t>
+          <t>18,68; 25,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,33; 22,94</t>
+          <t>16,38; 23,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,43</t>
+          <t>-4,66; 1,36</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>79,92; 149,14</t>
+          <t>80,41; 151,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>58,36; 124,18</t>
+          <t>57,6; 125,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 21,07</t>
+          <t>-19,68; 23,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>54,09; 99,57</t>
+          <t>55,35; 100,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>51,75; 98,62</t>
+          <t>50,69; 96,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 7,33</t>
+          <t>-22,82; 6,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>71,21; 109,77</t>
+          <t>71,22; 111,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>61,87; 99,15</t>
+          <t>62,42; 101,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 6,0</t>
+          <t>-17,98; 5,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>27,36; 32,5</t>
+          <t>27,12; 32,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>17,25; 22,3</t>
+          <t>16,91; 22,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,58</t>
+          <t>-0,41; 4,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>25,24; 30,25</t>
+          <t>25,4; 30,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,24; 23,31</t>
+          <t>17,99; 23,11</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 13,45</t>
+          <t>0,49; 13,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>27,01; 30,5</t>
+          <t>26,94; 30,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>18,51; 22,1</t>
+          <t>18,4; 22,04</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,92</t>
+          <t>1,06; 8,41</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>117,1; 158,35</t>
+          <t>116,89; 158,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>74,32; 109,38</t>
+          <t>73,9; 108,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 22,02</t>
+          <t>-1,82; 22,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>91,73; 121,61</t>
+          <t>92,89; 122,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>66,17; 93,47</t>
+          <t>66,0; 92,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,83; 53,45</t>
+          <t>1,79; 51,49</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>108,18; 132,61</t>
+          <t>107,01; 131,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>74,11; 94,8</t>
+          <t>73,01; 95,31</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>4,4; 37,66</t>
+          <t>4,23; 36,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 48,81</t>
+          <t>23,41; 49,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 41,65</t>
+          <t>16,34; 42,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 11,27</t>
+          <t>-9,42; 13,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,42; 46,5</t>
+          <t>21,3; 45,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,25; 46,39</t>
+          <t>23,46; 47,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 16,76</t>
+          <t>-2,38; 16,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,66; 43,5</t>
+          <t>26,38; 43,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,55; 41,41</t>
+          <t>24,08; 41,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 11,95</t>
+          <t>-2,54; 11,96</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>105,26; 533,16</t>
+          <t>112,15; 545,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,84; 476,65</t>
+          <t>71,3; 433,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,64; 130,77</t>
+          <t>-48,59; 134,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,83; 446,45</t>
+          <t>98,99; 448,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>109,67; 466,55</t>
+          <t>113,26; 492,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 178,49</t>
+          <t>-15,35; 177,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>127,12; 387,7</t>
+          <t>126,08; 380,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>120,44; 369,9</t>
+          <t>122,38; 363,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 104,11</t>
+          <t>-14,93; 109,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,24; 35,9</t>
+          <t>23,29; 35,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,47; 31,75</t>
+          <t>19,73; 32,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 8,72</t>
+          <t>-3,28; 8,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 34,06</t>
+          <t>22,69; 34,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,2; 26,07</t>
+          <t>13,66; 25,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 3,63</t>
+          <t>-7,93; 3,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,53; 33,26</t>
+          <t>24,82; 33,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 27,1</t>
+          <t>18,31; 27,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,5</t>
+          <t>-3,6; 4,77</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,1; 178,64</t>
+          <t>85,77; 172,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,42; 158,52</t>
+          <t>71,55; 156,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 43,39</t>
+          <t>-12,38; 41,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,3; 138,82</t>
+          <t>73,09; 139,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,73; 105,28</t>
+          <t>44,56; 103,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 14,2</t>
+          <t>-25,59; 14,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,66; 140,93</t>
+          <t>88,32; 138,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,82; 113,38</t>
+          <t>64,16; 113,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 18,32</t>
+          <t>-13,05; 20,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,96; 37,23</t>
+          <t>27,58; 36,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,92; 25,57</t>
+          <t>16,34; 25,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,01</t>
+          <t>-0,54; 9,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,28; 35,4</t>
+          <t>26,29; 35,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,98; 28,7</t>
+          <t>19,65; 28,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,73</t>
+          <t>4,26; 12,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,9; 34,44</t>
+          <t>28,01; 34,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,17; 25,56</t>
+          <t>19,1; 25,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,16</t>
+          <t>3,51; 9,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>110,38; 180,73</t>
+          <t>110,45; 183,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,53; 125,82</t>
+          <t>64,57; 124,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 43,86</t>
+          <t>-2,23; 44,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,27; 155,66</t>
+          <t>92,84; 149,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,1; 122,01</t>
+          <t>69,88; 121,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,98; 56,08</t>
+          <t>15,0; 52,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>105,63; 153,53</t>
+          <t>107,61; 152,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>74,63; 115,61</t>
+          <t>73,51; 114,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,76; 44,41</t>
+          <t>13,34; 43,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,84; 39,79</t>
+          <t>28,16; 39,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 19,4</t>
+          <t>7,34; 18,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,38</t>
+          <t>-4,22; 7,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,27; 37,52</t>
+          <t>27,5; 37,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,67; 20,56</t>
+          <t>10,22; 20,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 37,14</t>
+          <t>-3,0; 37,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,29; 37,22</t>
+          <t>29,34; 36,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,49; 18,2</t>
+          <t>10,42; 18,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 25,98</t>
+          <t>-1,29; 27,49</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>115,27; 221,79</t>
+          <t>115,9; 212,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,38; 104,52</t>
+          <t>30,41; 99,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 40,01</t>
+          <t>-18,27; 37,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>95,01; 165,2</t>
+          <t>97,79; 163,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,19; 90,3</t>
+          <t>37,55; 91,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 146,31</t>
+          <t>-11,77; 166,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>114,73; 174,51</t>
+          <t>114,71; 172,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,26; 84,83</t>
+          <t>40,76; 83,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 113,13</t>
+          <t>-5,37; 122,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,88; 28,68</t>
+          <t>19,15; 28,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,62; 23,77</t>
+          <t>14,04; 23,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,31</t>
+          <t>-5,2; 3,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,09; 25,29</t>
+          <t>16,48; 25,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,61; 24,78</t>
+          <t>15,69; 24,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 1,56</t>
+          <t>-6,7; 1,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,68; 25,57</t>
+          <t>19,03; 25,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,38; 23,34</t>
+          <t>16,44; 23,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,36</t>
+          <t>-4,68; 1,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>80,41; 151,44</t>
+          <t>80,21; 151,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>57,6; 125,82</t>
+          <t>60,98; 126,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 23,03</t>
+          <t>-21,76; 20,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>55,35; 100,85</t>
+          <t>54,08; 101,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>50,69; 96,17</t>
+          <t>53,8; 98,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 6,51</t>
+          <t>-22,82; 6,19</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>71,22; 111,03</t>
+          <t>72,22; 110,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>62,42; 101,07</t>
+          <t>62,16; 100,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 5,92</t>
+          <t>-17,77; 6,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,34</t>
+          <t>27,12; 32,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,43</t>
+          <t>17,05; 22,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,55</t>
+          <t>-0,54; 4,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>25,4; 30,43</t>
+          <t>25,8; 30,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,99; 23,11</t>
+          <t>18,2; 23,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,49; 13,15</t>
+          <t>0,41; 13,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,94; 30,56</t>
+          <t>26,97; 30,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>18,4; 22,04</t>
+          <t>18,25; 21,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,41</t>
+          <t>1,0; 9,57</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>116,89; 158,21</t>
+          <t>117,32; 159,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>73,9; 108,84</t>
+          <t>73,49; 108,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 22,18</t>
+          <t>-2,53; 21,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>92,89; 122,78</t>
+          <t>93,74; 123,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>66,0; 92,3</t>
+          <t>66,44; 92,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,79; 51,49</t>
+          <t>1,5; 52,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>107,01; 131,7</t>
+          <t>107,28; 131,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>73,01; 95,31</t>
+          <t>73,18; 94,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>4,23; 36,63</t>
+          <t>3,88; 38,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,81</t>
+          <t>30,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,36</t>
+          <t>26,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,22</t>
+          <t>29,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,45</t>
+          <t>22,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,95</t>
+          <t>30,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,66</t>
+          <t>24,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 49,68</t>
+          <t>25,25; 36,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 42,3</t>
+          <t>21,27; 32,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 13,2</t>
+          <t>-3,78; 6,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 45,03</t>
+          <t>24,21; 35,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 47,4</t>
+          <t>17,15; 28,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 16,76</t>
+          <t>-9,35; 2,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,38; 43,52</t>
+          <t>25,88; 33,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,08; 41,84</t>
+          <t>20,55; 28,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 11,96</t>
+          <t>-5,52; 3,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>248,37%</t>
+          <t>139,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>198,15%</t>
+          <t>120,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>221,81%</t>
+          <t>113,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>236,67%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>234,57%</t>
+          <t>124,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>219,21%</t>
+          <t>102,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>112,15; 545,01</t>
+          <t>99,71; 187,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,3; 433,33</t>
+          <t>85,75; 165,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 134,92</t>
+          <t>-15,32; 34,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>98,99; 448,46</t>
+          <t>83,3; 152,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>113,26; 492,74</t>
+          <t>60,33; 123,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 177,67</t>
+          <t>-33,51; 11,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>126,08; 380,59</t>
+          <t>97,68; 153,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>122,38; 363,22</t>
+          <t>77,7; 125,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 109,01</t>
+          <t>-21,73; 15,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,52</t>
+          <t>32,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,92</t>
+          <t>20,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,69</t>
+          <t>30,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>23,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,02</t>
+          <t>31,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,92</t>
+          <t>22,42</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>5,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,29; 35,18</t>
+          <t>27,58; 36,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 32,36</t>
+          <t>16,34; 25,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,75</t>
+          <t>-1,68; 7,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,69; 34,54</t>
+          <t>26,29; 35,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,66; 25,81</t>
+          <t>19,65; 28,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 3,95</t>
+          <t>3,33; 11,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,82; 33,2</t>
+          <t>28,01; 34,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 27,39</t>
+          <t>19,1; 25,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,77</t>
+          <t>2,3; 8,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>124,86%</t>
+          <t>142,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>109,63%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>102,47%</t>
+          <t>118,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,25%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>111,85%</t>
+          <t>128,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>22,76%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,77; 172,72</t>
+          <t>110,45; 183,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,55; 156,18</t>
+          <t>64,57; 124,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 41,54</t>
+          <t>-7,07; 36,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,09; 139,05</t>
+          <t>92,84; 149,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,56; 103,15</t>
+          <t>69,88; 121,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 14,73</t>
+          <t>11,48; 48,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,32; 138,76</t>
+          <t>107,61; 152,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,16; 113,91</t>
+          <t>73,51; 114,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 20,35</t>
+          <t>8,69; 37,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>32,21</t>
+          <t>34,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,87</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,65</t>
+          <t>32,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,67</t>
+          <t>15,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,37</t>
+          <t>33,19</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,42</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>11,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,58; 36,94</t>
+          <t>28,16; 39,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 25,68</t>
+          <t>7,34; 18,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 9,17</t>
+          <t>-5,11; 6,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,29; 35,34</t>
+          <t>27,5; 37,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,65; 28,45</t>
+          <t>10,22; 20,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 12,68</t>
+          <t>-5,2; 49,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,01; 34,8</t>
+          <t>29,34; 36,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,1; 25,86</t>
+          <t>10,42; 18,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,88</t>
+          <t>-2,59; 39,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>142,04%</t>
+          <t>161,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>62,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>118,85%</t>
+          <t>127,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>60,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>66,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>128,97%</t>
+          <t>141,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>47,69%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>110,45; 183,21</t>
+          <t>115,9; 212,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>64,57; 124,86</t>
+          <t>30,41; 99,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 44,5</t>
+          <t>-22,18; 31,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,84; 149,97</t>
+          <t>97,79; 163,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,88; 121,35</t>
+          <t>37,55; 91,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,0; 52,74</t>
+          <t>-19,86; 226,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>107,61; 152,95</t>
+          <t>114,71; 172,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,51; 114,25</t>
+          <t>40,76; 83,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,34; 43,5</t>
+          <t>-11,08; 173,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,05</t>
+          <t>23,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>18,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,4</t>
+          <t>21,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,46</t>
+          <t>20,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,19</t>
+          <t>22,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,41</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>-3,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,16; 39,48</t>
+          <t>19,15; 28,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 18,4</t>
+          <t>14,04; 23,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,16</t>
+          <t>-5,91; 3,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,5; 37,61</t>
+          <t>16,48; 25,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,22; 20,99</t>
+          <t>15,69; 24,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 37,93</t>
+          <t>-10,97; -0,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,34; 36,9</t>
+          <t>19,03; 25,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,16</t>
+          <t>16,44; 23,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 27,49</t>
+          <t>-7,3; -0,15</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>161,55%</t>
+          <t>111,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>62,2%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>-5,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>127,05%</t>
+          <t>77,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>74,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>-18,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>141,68%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>80,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>-13,29%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>115,9; 212,43</t>
+          <t>80,21; 151,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,41; 99,61</t>
+          <t>60,98; 126,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 37,55</t>
+          <t>-24,97; 16,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>97,79; 163,43</t>
+          <t>54,08; 101,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,55; 91,09</t>
+          <t>53,8; 98,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 166,2</t>
+          <t>-39,13; -3,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>114,71; 172,96</t>
+          <t>72,22; 110,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,76; 83,0</t>
+          <t>62,16; 100,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 122,51</t>
+          <t>-27,73; -0,6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,67</t>
+          <t>29,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>18,94</t>
+          <t>19,79</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,05</t>
+          <t>27,97</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,46</t>
+          <t>20,77</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,17</t>
+          <t>28,88</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>19,75</t>
+          <t>20,34</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>3,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,15; 28,59</t>
+          <t>27,12; 32,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,04; 23,83</t>
+          <t>17,05; 22,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 3,97</t>
+          <t>-1,53; 3,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,48; 25,54</t>
+          <t>25,8; 30,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,69; 24,65</t>
+          <t>18,2; 23,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,54</t>
+          <t>-1,34; 19,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,03; 25,48</t>
+          <t>26,97; 30,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,44; 23,22</t>
+          <t>18,25; 21,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,5</t>
+          <t>-0,51; 14,37</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>111,31%</t>
+          <t>137,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>77,13%</t>
+          <t>106,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>74,97%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>119,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>80,16%</t>
+          <t>84,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>13,56%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>80,21; 151,04</t>
+          <t>117,32; 159,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>60,98; 126,72</t>
+          <t>73,49; 108,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 20,52</t>
+          <t>-6,89; 16,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>54,08; 101,45</t>
+          <t>93,74; 123,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>53,8; 98,43</t>
+          <t>66,44; 92,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 6,19</t>
+          <t>-4,97; 80,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>72,22; 110,35</t>
+          <t>107,28; 131,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>62,16; 100,2</t>
+          <t>73,18; 94,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 6,49</t>
+          <t>-2,22; 61,0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>29,97</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>19,79</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>27,97</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>20,77</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>28,88</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>20,34</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>27,12; 32,6</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>17,05; 22,44</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 4,58</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>25,8; 30,42</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>18,2; 23,1</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 13,21</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>26,97; 30,5</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>18,25; 21,98</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 9,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>137,26%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>90,63%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>106,79%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>79,32%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>15,46%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>119,45%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>84,11%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>13,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>117,32; 159,14</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>73,49; 108,72</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 21,77</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>93,74; 123,11</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>66,44; 92,38</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 52,44</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>107,28; 131,06</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>73,18; 94,43</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 38,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,25; 36,29</t>
+          <t>25,49; 36,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 32,29</t>
+          <t>20,73; 32,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,95</t>
+          <t>-3,54; 7,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,21; 35,38</t>
+          <t>23,78; 34,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,15; 28,94</t>
+          <t>16,47; 27,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 2,88</t>
+          <t>-8,78; 2,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,88; 33,87</t>
+          <t>25,93; 33,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 28,18</t>
+          <t>20,06; 28,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 3,57</t>
+          <t>-4,77; 3,52</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>99,71; 187,98</t>
+          <t>100,08; 190,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,75; 165,78</t>
+          <t>83,19; 167,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 34,85</t>
+          <t>-15,19; 35,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,3; 152,65</t>
+          <t>81,45; 148,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,33; 123,31</t>
+          <t>57,23; 118,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 11,48</t>
+          <t>-31,85; 12,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>97,68; 153,15</t>
+          <t>98,45; 151,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,7; 125,6</t>
+          <t>75,35; 126,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 15,75</t>
+          <t>-18,12; 15,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,58; 36,94</t>
+          <t>27,34; 36,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,34; 25,68</t>
+          <t>15,71; 25,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 7,75</t>
+          <t>-2,24; 7,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,29; 35,34</t>
+          <t>25,97; 35,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,65; 28,45</t>
+          <t>19,2; 28,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 11,69</t>
+          <t>3,71; 11,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,01; 34,8</t>
+          <t>28,04; 34,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,1; 25,86</t>
+          <t>19,25; 25,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,71</t>
+          <t>2,21; 8,56</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>110,45; 183,21</t>
+          <t>107,45; 181,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,57; 124,86</t>
+          <t>62,34; 126,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 36,93</t>
+          <t>-8,95; 36,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92,84; 149,97</t>
+          <t>92,55; 152,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,88; 121,35</t>
+          <t>68,72; 121,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 48,39</t>
+          <t>13,76; 51,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>107,61; 152,95</t>
+          <t>106,68; 154,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>73,51; 114,25</t>
+          <t>73,65; 114,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 37,9</t>
+          <t>8,44; 38,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,16; 39,48</t>
+          <t>27,84; 39,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 18,4</t>
+          <t>7,71; 18,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,07</t>
+          <t>-4,78; 6,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,5; 37,61</t>
+          <t>26,88; 38,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,22; 20,99</t>
+          <t>9,59; 20,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 49,08</t>
+          <t>-4,66; 49,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,34; 36,9</t>
+          <t>29,06; 37,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,16</t>
+          <t>10,48; 18,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 39,43</t>
+          <t>-2,96; 35,8</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>115,9; 212,43</t>
+          <t>113,67; 215,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,41; 99,61</t>
+          <t>32,02; 99,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 31,77</t>
+          <t>-19,86; 32,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97,79; 163,43</t>
+          <t>94,72; 169,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,55; 91,09</t>
+          <t>33,93; 89,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 226,28</t>
+          <t>-17,01; 201,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>114,71; 172,96</t>
+          <t>113,22; 172,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,76; 83,0</t>
+          <t>40,44; 83,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 173,64</t>
+          <t>-12,29; 162,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,15; 28,59</t>
+          <t>18,2; 28,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,04; 23,83</t>
+          <t>14,35; 23,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,1</t>
+          <t>-5,57; 3,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,48; 25,54</t>
+          <t>16,27; 25,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,69; 24,65</t>
+          <t>15,82; 25,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -0,54</t>
+          <t>-10,69; -0,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,03; 25,48</t>
+          <t>18,7; 25,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 23,22</t>
+          <t>16,85; 23,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -0,15</t>
+          <t>-6,76; -0,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>80,21; 151,04</t>
+          <t>76,03; 149,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>60,98; 126,72</t>
+          <t>59,91; 125,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 16,43</t>
+          <t>-23,46; 18,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>54,08; 101,45</t>
+          <t>54,7; 101,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,8; 98,43</t>
+          <t>54,25; 100,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,13; -3,12</t>
+          <t>-37,67; -2,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>72,22; 110,35</t>
+          <t>71,2; 110,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62,16; 100,2</t>
+          <t>63,92; 101,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,73; -0,6</t>
+          <t>-26,58; -0,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,6</t>
+          <t>27,45; 32,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,44</t>
+          <t>17,05; 22,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,46</t>
+          <t>-1,44; 3,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,42</t>
+          <t>25,42; 30,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,1</t>
+          <t>18,14; 23,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 19,83</t>
+          <t>-1,29; 20,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,5</t>
+          <t>27,12; 30,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,98</t>
+          <t>18,53; 22,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 14,37</t>
+          <t>-0,34; 13,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>117,32; 159,14</t>
+          <t>119,86; 159,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>73,49; 108,72</t>
+          <t>73,94; 108,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 16,73</t>
+          <t>-6,21; 17,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>93,74; 123,11</t>
+          <t>92,78; 122,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>66,44; 92,38</t>
+          <t>66,52; 92,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 80,1</t>
+          <t>-4,81; 76,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>107,28; 131,06</t>
+          <t>107,43; 131,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>73,18; 94,43</t>
+          <t>73,85; 94,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 61,0</t>
+          <t>-1,39; 55,7</t>
         </is>
       </c>
     </row>
